--- a/Output/roaming_impact_reports_per_acct/Spang_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Spang_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
@@ -483,146 +483,151 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.1.2</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2402</v>
+        <v>1496</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>83.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1719</v>
+        <v>3460</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>91.7</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.100.0.4</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>93.59999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.0.7</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15157</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.27.1</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>460</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>98.90000000000001</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n">
-        <v>45</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>19741</v>
-      </c>
-    </row>
+      <c r="B5" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>4956</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
     <row r="9"/>
     <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Adapter-Driver</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Total Samples</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr"/>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Good Roaming Calculation (%)</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Driver Vintage</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>34181</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v/>
+      </c>
+    </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
-        </is>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>56018</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr"/>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
-        </is>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>34244</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>30446</v>
+        <v>442178</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -638,18 +643,20 @@
       <c r="D17" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E17" s="4" t="n">
-        <v/>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>392601</v>
+        <v>18738</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
@@ -657,7 +664,7 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
@@ -668,7 +675,7 @@
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>12096</v>
+        <v>13533</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
@@ -695,18 +702,18 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>10661</v>
+        <v>12988</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
@@ -714,18 +721,18 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>14239</v>
+        <v>42024</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
@@ -733,18 +740,18 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>254702</v>
+        <v>77849</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
@@ -752,18 +759,18 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>12988</v>
+        <v>15504</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
@@ -771,37 +778,37 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>18738</v>
+        <v>59673</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>42024</v>
+        <v>113652</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
@@ -809,338 +816,15 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
-        </is>
-      </c>
-      <c r="B27" s="6" t="n">
-        <v>74604</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>2021-08-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
-        </is>
-      </c>
-      <c r="B28" s="6" t="n">
-        <v>64199</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>2021-08-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
-        </is>
-      </c>
-      <c r="B29" s="6" t="n">
-        <v>15504</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>2021-06-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>2021-04-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
-        </is>
-      </c>
-      <c r="B31" s="6" t="n">
-        <v>167965</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>2021-01-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
-        </is>
-      </c>
-      <c r="B32" s="6" t="n">
-        <v>50749</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E32" s="4" t="inlineStr">
-        <is>
-          <t>2020-09-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
-        </is>
-      </c>
-      <c r="B33" s="6" t="n">
-        <v>59673</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>2020-08-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
-        </is>
-      </c>
-      <c r="B34" s="6" t="n">
-        <v>107862</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E34" s="4" t="inlineStr">
-        <is>
-          <t>2020-01-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
-        </is>
-      </c>
-      <c r="B35" s="6" t="n">
-        <v>56018</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
           <t>2019-12-14</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
-        </is>
-      </c>
-      <c r="B36" s="6" t="n">
-        <v>161874</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E36" s="4" t="inlineStr">
-        <is>
-          <t>2019-09-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
-        </is>
-      </c>
-      <c r="B37" s="6" t="n">
-        <v>134716</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E37" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
-        </is>
-      </c>
-      <c r="B38" s="6" t="n">
-        <v>20227</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E38" s="4" t="inlineStr">
-        <is>
-          <t>2019-05-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
-        </is>
-      </c>
-      <c r="B39" s="6" t="n">
-        <v>34065</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E39" s="4" t="inlineStr">
-        <is>
-          <t>2019-04-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
-        </is>
-      </c>
-      <c r="B40" s="6" t="n">
-        <v>48540</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E40" s="4" t="inlineStr">
-        <is>
-          <t>2019-03-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
-        </is>
-      </c>
-      <c r="B41" s="6" t="n">
-        <v>184564</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>2018-11-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
-        </is>
-      </c>
-      <c r="B42" s="6" t="n">
-        <v>14221</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E42" s="4" t="inlineStr">
-        <is>
-          <t>2018-05-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
-        </is>
-      </c>
-      <c r="B43" s="6" t="n">
-        <v>23765</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E43" s="4" t="inlineStr">
-        <is>
-          <t>2018-01-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Spang_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Spang_driver_summary.xlsx
@@ -493,7 +493,7 @@
         <v>1496</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>81.90000000000001</v>
+        <v>80.09999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3460</v>
+        <v>4970</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>93.09999999999999</v>
+        <v>90.7</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4956</v>
+        <v>6466</v>
       </c>
     </row>
     <row r="6"/>
@@ -563,15 +563,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
         </is>
       </c>
       <c r="B13" s="6" t="n">
-        <v>34181</v>
+        <v>156943</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E13" s="4" t="n">
         <v/>
@@ -580,64 +580,68 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>56018</v>
+        <v>34181</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>34244</v>
+        <v>445055</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>442178</v>
+        <v>13533</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2023-12-19</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>156943</v>
+        <v>19083</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
@@ -645,56 +649,56 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2022-08-30</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>18738</v>
+        <v>12988</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>13533</v>
+        <v>18738</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>19083</v>
+        <v>42024</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
@@ -702,37 +706,37 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>12988</v>
+        <v>77849</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>42024</v>
+        <v>15504</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
@@ -740,37 +744,37 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>77849</v>
+        <v>34244</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>15504</v>
+        <v>59673</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
@@ -778,18 +782,18 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>59673</v>
+        <v>113652</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
@@ -797,18 +801,18 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>113652</v>
+        <v>56018</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">

--- a/Output/roaming_impact_reports_per_acct/Spang_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Spang_driver_summary.xlsx
@@ -493,7 +493,7 @@
         <v>1496</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>80.09999999999999</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4970</v>
+        <v>5159</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>90.7</v>
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6466</v>
+        <v>6655</v>
       </c>
     </row>
     <row r="6"/>
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>445055</v>
+        <v>449371</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" s="4" t="n">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>13533</v>
+        <v>14968</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>77849</v>
+        <v>77999</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">

--- a/Output/roaming_impact_reports_per_acct/Spang_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Spang_driver_summary.xlsx
@@ -493,7 +493,7 @@
         <v>1496</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>78.40000000000001</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="4">
@@ -509,7 +509,7 @@
         <v>5159</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>90.90000000000001</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">

--- a/Output/roaming_impact_reports_per_acct/Spang_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Spang_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
@@ -483,17 +483,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 21.50.1.1</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1496</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>78.3</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="4">
@@ -503,164 +503,159 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5159</v>
+        <v>3881</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>91</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.110.0.5</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>297</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>95.40000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>6655</v>
-      </c>
-    </row>
-    <row r="6"/>
+      <c r="B6" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4181</v>
+      </c>
+    </row>
     <row r="7"/>
     <row r="8"/>
     <row r="9"/>
     <row r="10"/>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11"/>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Good Drivers (Roaming &gt; 99.8%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Adapter-Driver</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Total Samples</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr"/>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr"/>
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>Good Roaming Calculation (%)</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>Driver Vintage</t>
         </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="n">
-        <v>156943</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>34181</v>
+        <v>156943</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>449371</v>
+        <v>11128</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>14968</v>
+        <v>34181</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>19083</v>
+        <v>486214</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>12988</v>
+        <v>15827</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
@@ -668,37 +663,37 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2023-12-19</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>18738</v>
+        <v>19083</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-08-30</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>42024</v>
+        <v>12988</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
@@ -706,18 +701,18 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>77999</v>
+        <v>18738</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
@@ -725,18 +720,18 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>15504</v>
+        <v>42024</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
@@ -744,37 +739,37 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>34244</v>
+        <v>79953</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>59673</v>
+        <v>15504</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
@@ -782,18 +777,18 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>113652</v>
+        <v>35355</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
@@ -801,34 +796,262 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>56018</v>
+        <v>172690</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
+          <t>2021-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>52096</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="n">
+        <v>65425</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>117653</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>56018</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
           <t>2019-12-14</t>
         </is>
       </c>
     </row>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="n">
+        <v>161874</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>2019-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>154175</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="n">
+        <v>20227</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>2019-05-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+        </is>
+      </c>
+      <c r="B34" s="6" t="n">
+        <v>34065</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>2019-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="n">
+        <v>48540</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
+        </is>
+      </c>
+      <c r="B36" s="6" t="n">
+        <v>184564</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>2018-11-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
+        </is>
+      </c>
+      <c r="B37" s="6" t="n">
+        <v>14221</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>2018-05-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="n">
+        <v>23765</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>2018-01-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Spang_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Spang_driver_summary.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -63,9 +63,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,15 +437,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -499,33 +496,33 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3881</v>
+        <v>297</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>297</v>
+        <v>3112</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>95.40000000000001</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="6">
@@ -538,7 +535,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4181</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="7"/>
@@ -554,504 +551,2131 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>driver vintage</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>156943</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v/>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>376240</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D14" t="n">
+        <v>582</v>
+      </c>
+      <c r="E14" t="n">
+        <v>594</v>
+      </c>
+      <c r="F14" t="n">
+        <v>377926</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>23.10.0.8</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>11128</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v/>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1786148</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3309</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4386</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2366</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1793843</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>22.250.0.4</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>34181</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7568454</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14989</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13188</v>
+      </c>
+      <c r="E16" t="n">
+        <v>16900</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7596631</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>22.40.0.7</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2021-09-18</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>486214</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.150.1.1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>290468</v>
+      </c>
+      <c r="C17" t="n">
+        <v>898</v>
+      </c>
+      <c r="D17" t="n">
+        <v>303</v>
+      </c>
+      <c r="E17" t="n">
+        <v>412</v>
+      </c>
+      <c r="F17" t="n">
+        <v>291669</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>22.150.1.1</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>15827</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>2023-12-19</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.110.0.5</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>178426</v>
+      </c>
+      <c r="C18" t="n">
+        <v>575</v>
+      </c>
+      <c r="D18" t="n">
+        <v>148</v>
+      </c>
+      <c r="E18" t="n">
+        <v>415</v>
+      </c>
+      <c r="F18" t="n">
+        <v>179149</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>23.110.0.5</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="n">
-        <v>19083</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-30</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.130.0.5</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>778486</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2131</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E19" t="n">
+        <v>972</v>
+      </c>
+      <c r="F19" t="n">
+        <v>781660</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>22.130.0.5</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>12988</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>733616</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1647</v>
+      </c>
+      <c r="D20" t="n">
+        <v>507</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F20" t="n">
+        <v>735770</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>22.220.0.4</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="n">
-        <v>18738</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>2022-03-14</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.30.1</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3296941</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6476</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2989</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5171</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3306406</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>20.70.30.1</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2022-01-12</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="n">
-        <v>42024</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.5</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>35999</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>112</v>
+      </c>
+      <c r="E22" t="n">
+        <v>67</v>
+      </c>
+      <c r="F22" t="n">
+        <v>36116</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>20.50.0.5</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J22" t="n">
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="n">
-        <v>79953</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>2021-08-18</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.4.2</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4216368</v>
+      </c>
+      <c r="C23" t="n">
+        <v>10356</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2464</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4601</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4229188</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>20.70.4.2</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2018-10-21</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="n">
-        <v>15504</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>2021-06-28</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 21.120.0.9</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>127884</v>
+      </c>
+      <c r="C24" t="n">
+        <v>145</v>
+      </c>
+      <c r="D24" t="n">
+        <v>221</v>
+      </c>
+      <c r="E24" t="n">
+        <v>136</v>
+      </c>
+      <c r="F24" t="n">
+        <v>128250</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>21.120.0.9</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="n">
-        <v>35355</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>2021-04-27</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1159949</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2346</v>
+      </c>
+      <c r="D25" t="n">
+        <v>583</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1162878</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>22.170.0.3</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2022-08-28</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
-        </is>
-      </c>
-      <c r="B26" s="6" t="n">
-        <v>172690</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>2021-01-19</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>192287</v>
+      </c>
+      <c r="C26" t="n">
+        <v>421</v>
+      </c>
+      <c r="D26" t="n">
+        <v>70</v>
+      </c>
+      <c r="E26" t="n">
+        <v>390</v>
+      </c>
+      <c r="F26" t="n">
+        <v>192778</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>23.80.1.3</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
-        </is>
-      </c>
-      <c r="B27" s="6" t="n">
-        <v>52096</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>2020-09-28</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.250.1.2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>28199</v>
+      </c>
+      <c r="C27" t="n">
+        <v>75</v>
+      </c>
+      <c r="D27" t="n">
+        <v>17</v>
+      </c>
+      <c r="E27" t="n">
+        <v>81</v>
+      </c>
+      <c r="F27" t="n">
+        <v>28291</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>22.250.1.2</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2023-08-06</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
-        </is>
-      </c>
-      <c r="B28" s="6" t="n">
-        <v>65425</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>2020-08-05</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1499724</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4069</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1136</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2789</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1504929</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>22.190.0.4</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
-        </is>
-      </c>
-      <c r="B29" s="6" t="n">
-        <v>117653</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>2020-01-06</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>330685</v>
+      </c>
+      <c r="C29" t="n">
+        <v>445</v>
+      </c>
+      <c r="D29" t="n">
+        <v>530</v>
+      </c>
+      <c r="E29" t="n">
+        <v>410</v>
+      </c>
+      <c r="F29" t="n">
+        <v>331660</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>22.90.0.5</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="n">
-        <v>56018</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>2019-12-14</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>938125</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2222</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E30" t="n">
+        <v>959</v>
+      </c>
+      <c r="F30" t="n">
+        <v>941353</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>22.20.0.6</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2020-11-29</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
-        </is>
-      </c>
-      <c r="B31" s="6" t="n">
-        <v>161874</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>2019-09-05</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>68085</v>
+      </c>
+      <c r="C31" t="n">
+        <v>74</v>
+      </c>
+      <c r="D31" t="n">
+        <v>33</v>
+      </c>
+      <c r="E31" t="n">
+        <v>234</v>
+      </c>
+      <c r="F31" t="n">
+        <v>68192</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>20.70.26.2</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2021-08-08</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
-        </is>
-      </c>
-      <c r="B32" s="6" t="n">
-        <v>154175</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E32" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-25</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.19.1</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>65379</v>
+      </c>
+      <c r="C32" t="n">
+        <v>85</v>
+      </c>
+      <c r="D32" t="n">
+        <v>25</v>
+      </c>
+      <c r="E32" t="n">
+        <v>81</v>
+      </c>
+      <c r="F32" t="n">
+        <v>65489</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>20.70.19.1</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
-        </is>
-      </c>
-      <c r="B33" s="6" t="n">
-        <v>20227</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>2019-05-11</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>95095</v>
+      </c>
+      <c r="C33" t="n">
+        <v>191</v>
+      </c>
+      <c r="D33" t="n">
+        <v>30</v>
+      </c>
+      <c r="E33" t="n">
+        <v>247</v>
+      </c>
+      <c r="F33" t="n">
+        <v>95316</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>22.60.0.6</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2021-05-26</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
-        </is>
-      </c>
-      <c r="B34" s="6" t="n">
-        <v>34065</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E34" s="4" t="inlineStr">
-        <is>
-          <t>2019-04-28</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1731609</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2149</v>
+      </c>
+      <c r="D34" t="n">
+        <v>656</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1812</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1734414</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>22.0.0.6</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2020-09-16</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
-        </is>
-      </c>
-      <c r="B35" s="6" t="n">
-        <v>48540</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>2019-03-16</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.90.1.3</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>127181</v>
+      </c>
+      <c r="C35" t="n">
+        <v>241</v>
+      </c>
+      <c r="D35" t="n">
+        <v>65</v>
+      </c>
+      <c r="E35" t="n">
+        <v>183</v>
+      </c>
+      <c r="F35" t="n">
+        <v>127487</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>23.90.1.3</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2024-10-12</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
-        </is>
-      </c>
-      <c r="B36" s="6" t="n">
-        <v>184564</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E36" s="4" t="inlineStr">
-        <is>
-          <t>2018-11-25</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.90.0.2</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>553494</v>
+      </c>
+      <c r="C36" t="n">
+        <v>714</v>
+      </c>
+      <c r="D36" t="n">
+        <v>463</v>
+      </c>
+      <c r="E36" t="n">
+        <v>911</v>
+      </c>
+      <c r="F36" t="n">
+        <v>554671</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>23.90.0.2</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
-        </is>
-      </c>
-      <c r="B37" s="6" t="n">
-        <v>14221</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E37" s="4" t="inlineStr">
-        <is>
-          <t>2018-05-08</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.40.0.4</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>76444</v>
+      </c>
+      <c r="C37" t="n">
+        <v>78</v>
+      </c>
+      <c r="D37" t="n">
+        <v>56</v>
+      </c>
+      <c r="E37" t="n">
+        <v>144</v>
+      </c>
+      <c r="F37" t="n">
+        <v>76578</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>23.40.0.4</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1296766</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1864</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2887</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1299705</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>22.0.1.1</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>389283</v>
+      </c>
+      <c r="C39" t="n">
+        <v>428</v>
+      </c>
+      <c r="D39" t="n">
+        <v>216</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1233</v>
+      </c>
+      <c r="F39" t="n">
+        <v>389927</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>21.80.2.1</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>63994</v>
+      </c>
+      <c r="C40" t="n">
+        <v>66</v>
+      </c>
+      <c r="D40" t="n">
+        <v>41</v>
+      </c>
+      <c r="E40" t="n">
+        <v>68</v>
+      </c>
+      <c r="F40" t="n">
+        <v>64101</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>21.80.0.4</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2020-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>79835</v>
+      </c>
+      <c r="C41" t="n">
+        <v>93</v>
+      </c>
+      <c r="D41" t="n">
+        <v>25</v>
+      </c>
+      <c r="E41" t="n">
+        <v>153</v>
+      </c>
+      <c r="F41" t="n">
+        <v>79953</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>22.80.0.9</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2021-08-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>485568</v>
+      </c>
+      <c r="C42" t="n">
+        <v>468</v>
+      </c>
+      <c r="D42" t="n">
+        <v>178</v>
+      </c>
+      <c r="E42" t="n">
+        <v>568</v>
+      </c>
+      <c r="F42" t="n">
+        <v>486214</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>23.100.0.4</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>184414</v>
+      </c>
+      <c r="C43" t="n">
+        <v>146</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" t="n">
+        <v>192</v>
+      </c>
+      <c r="F43" t="n">
+        <v>184564</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>20.70.5.2</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2018-11-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>154074</v>
+      </c>
+      <c r="C44" t="n">
+        <v>71</v>
+      </c>
+      <c r="D44" t="n">
+        <v>30</v>
+      </c>
+      <c r="E44" t="n">
+        <v>191</v>
+      </c>
+      <c r="F44" t="n">
+        <v>154175</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>20.70.12.5</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2019-08-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>18722</v>
+      </c>
+      <c r="C45" t="n">
+        <v>15</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>26</v>
+      </c>
+      <c r="F45" t="n">
+        <v>18738</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>22.130.0.5</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2022-03-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>34161</v>
+      </c>
+      <c r="C46" t="n">
+        <v>18</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>46</v>
+      </c>
+      <c r="F46" t="n">
+        <v>34181</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>23.120.0.3</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>172561</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>124</v>
+      </c>
+      <c r="E47" t="n">
+        <v>247</v>
+      </c>
+      <c r="F47" t="n">
+        <v>172690</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>22.30.0.11</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>48535</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>77</v>
+      </c>
+      <c r="F48" t="n">
+        <v>48540</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>20.70.8.1</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>100</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>34065</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>52</v>
+      </c>
+      <c r="F49" t="n">
+        <v>34065</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>20.70.9.1</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>100</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2019-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>52091</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" t="n">
+        <v>68</v>
+      </c>
+      <c r="F50" t="n">
+        <v>52096</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>22.0.1.1</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>100</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>20220</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>25</v>
+      </c>
+      <c r="F51" t="n">
+        <v>20227</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>20.70.10.2</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>100</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2019-05-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>161852</v>
+      </c>
+      <c r="C52" t="n">
+        <v>8</v>
+      </c>
+      <c r="D52" t="n">
+        <v>14</v>
+      </c>
+      <c r="E52" t="n">
+        <v>222</v>
+      </c>
+      <c r="F52" t="n">
+        <v>161874</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>20.70.11.3</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>100</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2019-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
         </is>
       </c>
-      <c r="B38" s="6" t="n">
+      <c r="B53" t="n">
+        <v>23761</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>29</v>
+      </c>
+      <c r="F53" t="n">
         <v>23765</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" s="4" t="n">
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>20.30.1.2</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>100</v>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>2018-01-09</t>
         </is>
       </c>
     </row>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>14221</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>40</v>
+      </c>
+      <c r="F54" t="n">
+        <v>14221</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>20.50.0.4</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>100</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2018-05-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>65422</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>72</v>
+      </c>
+      <c r="F55" t="n">
+        <v>65425</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>21.110.3.2</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>100</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>15504</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>18</v>
+      </c>
+      <c r="F56" t="n">
+        <v>15504</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>22.70.0.6</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>100</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>15823</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>60</v>
+      </c>
+      <c r="F57" t="n">
+        <v>15827</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>23.20.1.1</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>100</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>156943</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>158</v>
+      </c>
+      <c r="F58" t="n">
+        <v>156943</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>22.0.1.5</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>100</v>
+      </c>
+      <c r="J58" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>12986</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>25</v>
+      </c>
+      <c r="F59" t="n">
+        <v>12988</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>22.100.0.3</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>100</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>42024</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>45</v>
+      </c>
+      <c r="F60" t="n">
+        <v>42024</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>22.110.1.1</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>100</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>19083</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>23</v>
+      </c>
+      <c r="F61" t="n">
+        <v>19083</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>22.170.2.1</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>100</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>11124</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>28</v>
+      </c>
+      <c r="F62" t="n">
+        <v>11128</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>21.40.1.3</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>100</v>
+      </c>
+      <c r="J62" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>56003</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>15</v>
+      </c>
+      <c r="E63" t="n">
+        <v>62</v>
+      </c>
+      <c r="F63" t="n">
+        <v>56018</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>21.60.2.1</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>100</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2019-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>117615</v>
+      </c>
+      <c r="C64" t="n">
+        <v>24</v>
+      </c>
+      <c r="D64" t="n">
+        <v>14</v>
+      </c>
+      <c r="E64" t="n">
+        <v>151</v>
+      </c>
+      <c r="F64" t="n">
+        <v>117653</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>21.70.0.6</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>100</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>35341</v>
+      </c>
+      <c r="C65" t="n">
+        <v>11</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3</v>
+      </c>
+      <c r="E65" t="n">
+        <v>80</v>
+      </c>
+      <c r="F65" t="n">
+        <v>35355</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>22.50.1.1</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>100</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Spang_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Spang_driver_summary.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,17 +496,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wi-Fi 7 BE200 320MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>297</v>
+        <v>129</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>95.59999999999999</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
@@ -519,10 +519,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3112</v>
+        <v>758</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>96.3</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -535,7 +535,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3412</v>
+        <v>890</v>
       </c>
     </row>
     <row r="7"/>
@@ -605,23 +605,23 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376240</v>
+        <v>1869842</v>
       </c>
       <c r="C14" t="n">
-        <v>1104</v>
+        <v>3420</v>
       </c>
       <c r="D14" t="n">
-        <v>582</v>
+        <v>4386</v>
       </c>
       <c r="E14" t="n">
-        <v>594</v>
+        <v>2436</v>
       </c>
       <c r="F14" t="n">
-        <v>377926</v>
+        <v>1877648</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>23.10.0.8</t>
+          <t>22.250.0.4</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -638,30 +638,30 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1786148</v>
+        <v>8170878</v>
       </c>
       <c r="C15" t="n">
-        <v>3309</v>
+        <v>15867</v>
       </c>
       <c r="D15" t="n">
-        <v>4386</v>
+        <v>13188</v>
       </c>
       <c r="E15" t="n">
-        <v>2366</v>
+        <v>18436</v>
       </c>
       <c r="F15" t="n">
-        <v>1793843</v>
+        <v>8199933</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>22.250.0.4</t>
+          <t>22.40.0.7</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -678,30 +678,30 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2021-09-18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7568454</v>
+        <v>1611822</v>
       </c>
       <c r="C16" t="n">
-        <v>14989</v>
+        <v>4793</v>
       </c>
       <c r="D16" t="n">
-        <v>13188</v>
+        <v>1136</v>
       </c>
       <c r="E16" t="n">
-        <v>16900</v>
+        <v>2996</v>
       </c>
       <c r="F16" t="n">
-        <v>7596631</v>
+        <v>1617751</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>22.40.0.7</t>
+          <t>22.190.0.4</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -718,7 +718,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
@@ -729,19 +729,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>290468</v>
+        <v>298304</v>
       </c>
       <c r="C17" t="n">
-        <v>898</v>
+        <v>925</v>
       </c>
       <c r="D17" t="n">
         <v>303</v>
       </c>
       <c r="E17" t="n">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F17" t="n">
-        <v>291669</v>
+        <v>299532</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -765,32 +765,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>178426</v>
+        <v>381616</v>
       </c>
       <c r="C18" t="n">
-        <v>575</v>
+        <v>1106</v>
       </c>
       <c r="D18" t="n">
-        <v>148</v>
+        <v>582</v>
       </c>
       <c r="E18" t="n">
-        <v>415</v>
+        <v>601</v>
       </c>
       <c r="F18" t="n">
-        <v>179149</v>
+        <v>383304</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>23.110.0.5</t>
+          <t>23.10.0.8</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -798,30 +798,30 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.130.0.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.25.2</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>778486</v>
+        <v>1771970</v>
       </c>
       <c r="C19" t="n">
-        <v>2131</v>
+        <v>7123</v>
       </c>
       <c r="D19" t="n">
-        <v>1043</v>
+        <v>634</v>
       </c>
       <c r="E19" t="n">
-        <v>972</v>
+        <v>2452</v>
       </c>
       <c r="F19" t="n">
-        <v>781660</v>
+        <v>1779727</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>22.130.0.5</t>
+          <t>20.70.25.2</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -838,70 +838,70 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2021-06-21</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.130.0.5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>733616</v>
+        <v>789985</v>
       </c>
       <c r="C20" t="n">
-        <v>1647</v>
+        <v>2131</v>
       </c>
       <c r="D20" t="n">
-        <v>507</v>
+        <v>1043</v>
       </c>
       <c r="E20" t="n">
-        <v>1266</v>
+        <v>980</v>
       </c>
       <c r="F20" t="n">
-        <v>735770</v>
+        <v>793159</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>22.130.0.5</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.30.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3296941</v>
+        <v>37344</v>
       </c>
       <c r="C21" t="n">
-        <v>6476</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>2989</v>
+        <v>112</v>
       </c>
       <c r="E21" t="n">
-        <v>5171</v>
+        <v>72</v>
       </c>
       <c r="F21" t="n">
-        <v>3306406</v>
+        <v>37461</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -910,38 +910,36 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>20.70.30.1</t>
+          <t>20.50.0.5</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>99.7</v>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>2022-01-12</t>
-        </is>
+      <c r="J21" t="n">
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.30.1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35999</v>
+        <v>3413584</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>6992</v>
       </c>
       <c r="D22" t="n">
-        <v>112</v>
+        <v>2989</v>
       </c>
       <c r="E22" t="n">
-        <v>67</v>
+        <v>5368</v>
       </c>
       <c r="F22" t="n">
-        <v>36116</v>
+        <v>3423565</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -950,36 +948,38 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>20.50.0.5</t>
+          <t>20.70.30.1</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>99.7</v>
       </c>
-      <c r="J22" t="n">
-        <v/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2022-01-12</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.4.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 21.120.0.9</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4216368</v>
+        <v>130754</v>
       </c>
       <c r="C23" t="n">
-        <v>10356</v>
+        <v>146</v>
       </c>
       <c r="D23" t="n">
-        <v>2464</v>
+        <v>221</v>
       </c>
       <c r="E23" t="n">
-        <v>4601</v>
+        <v>138</v>
       </c>
       <c r="F23" t="n">
-        <v>4229188</v>
+        <v>131121</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>20.70.4.2</t>
+          <t>21.120.0.9</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -996,30 +996,30 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2018-10-21</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 21.120.0.9</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.4.2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>127884</v>
+        <v>4467082</v>
       </c>
       <c r="C24" t="n">
-        <v>145</v>
+        <v>10922</v>
       </c>
       <c r="D24" t="n">
-        <v>221</v>
+        <v>2464</v>
       </c>
       <c r="E24" t="n">
-        <v>136</v>
+        <v>4779</v>
       </c>
       <c r="F24" t="n">
-        <v>128250</v>
+        <v>4480468</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>21.120.0.9</t>
+          <t>20.70.4.2</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1036,30 +1036,30 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2018-10-21</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1159949</v>
+        <v>335610</v>
       </c>
       <c r="C25" t="n">
-        <v>2346</v>
+        <v>495</v>
       </c>
       <c r="D25" t="n">
-        <v>583</v>
+        <v>530</v>
       </c>
       <c r="E25" t="n">
-        <v>1850</v>
+        <v>414</v>
       </c>
       <c r="F25" t="n">
-        <v>1162878</v>
+        <v>336635</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>22.170.0.3</t>
+          <t>22.90.0.5</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1076,30 +1076,30 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2022-08-28</t>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>192287</v>
+        <v>750778</v>
       </c>
       <c r="C26" t="n">
-        <v>421</v>
+        <v>1655</v>
       </c>
       <c r="D26" t="n">
-        <v>70</v>
+        <v>507</v>
       </c>
       <c r="E26" t="n">
-        <v>390</v>
+        <v>1290</v>
       </c>
       <c r="F26" t="n">
-        <v>192778</v>
+        <v>752940</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>23.80.1.3</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1116,39 +1116,39 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.250.1.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>28199</v>
+        <v>1021828</v>
       </c>
       <c r="C27" t="n">
-        <v>75</v>
+        <v>2379</v>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>1006</v>
       </c>
       <c r="E27" t="n">
-        <v>81</v>
+        <v>1021</v>
       </c>
       <c r="F27" t="n">
-        <v>28291</v>
+        <v>1025213</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>22.250.1.2</t>
+          <t>22.20.0.6</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -1156,30 +1156,30 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2020-11-29</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1499724</v>
+        <v>100380</v>
       </c>
       <c r="C28" t="n">
-        <v>4069</v>
+        <v>264</v>
       </c>
       <c r="D28" t="n">
-        <v>1136</v>
+        <v>30</v>
       </c>
       <c r="E28" t="n">
-        <v>2789</v>
+        <v>267</v>
       </c>
       <c r="F28" t="n">
-        <v>1504929</v>
+        <v>100674</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>22.190.0.4</t>
+          <t>22.60.0.6</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -1196,30 +1196,30 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2021-05-26</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>330685</v>
+        <v>195464</v>
       </c>
       <c r="C29" t="n">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D29" t="n">
-        <v>530</v>
+        <v>70</v>
       </c>
       <c r="E29" t="n">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="F29" t="n">
-        <v>331660</v>
+        <v>195964</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>22.90.0.5</t>
+          <t>23.80.1.3</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -1236,70 +1236,70 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>938125</v>
+        <v>69883</v>
       </c>
       <c r="C30" t="n">
-        <v>2222</v>
+        <v>84</v>
       </c>
       <c r="D30" t="n">
-        <v>1006</v>
+        <v>33</v>
       </c>
       <c r="E30" t="n">
-        <v>959</v>
+        <v>238</v>
       </c>
       <c r="F30" t="n">
-        <v>941353</v>
+        <v>70000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>22.20.0.6</t>
+          <t>20.70.26.2</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2021-08-08</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.19.1</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68085</v>
+        <v>71102</v>
       </c>
       <c r="C31" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D31" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E31" t="n">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="F31" t="n">
-        <v>68192</v>
+        <v>71220</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>20.70.26.2</t>
+          <t>20.70.19.1</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -1316,39 +1316,39 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2020-09-14</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.19.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>65379</v>
+        <v>1833336</v>
       </c>
       <c r="C32" t="n">
-        <v>85</v>
+        <v>2376</v>
       </c>
       <c r="D32" t="n">
-        <v>25</v>
+        <v>656</v>
       </c>
       <c r="E32" t="n">
-        <v>81</v>
+        <v>1899</v>
       </c>
       <c r="F32" t="n">
-        <v>65489</v>
+        <v>1836368</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>20.70.19.1</t>
+          <t>22.0.0.6</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -1356,30 +1356,30 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
+          <t>2020-09-16</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>95095</v>
+        <v>1237156</v>
       </c>
       <c r="C33" t="n">
-        <v>191</v>
+        <v>2499</v>
       </c>
       <c r="D33" t="n">
-        <v>30</v>
+        <v>583</v>
       </c>
       <c r="E33" t="n">
-        <v>247</v>
+        <v>1951</v>
       </c>
       <c r="F33" t="n">
-        <v>95316</v>
+        <v>1240238</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>22.60.0.6</t>
+          <t>22.170.0.3</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -1396,30 +1396,30 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2022-08-28</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1731609</v>
+        <v>63994</v>
       </c>
       <c r="C34" t="n">
-        <v>2149</v>
+        <v>66</v>
       </c>
       <c r="D34" t="n">
-        <v>656</v>
+        <v>41</v>
       </c>
       <c r="E34" t="n">
-        <v>1812</v>
+        <v>68</v>
       </c>
       <c r="F34" t="n">
-        <v>1734414</v>
+        <v>64101</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>22.0.0.6</t>
+          <t>21.80.0.4</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -1436,39 +1436,39 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>2020-01-29</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.90.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>127181</v>
+        <v>81417</v>
       </c>
       <c r="C35" t="n">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="D35" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E35" t="n">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="F35" t="n">
-        <v>127487</v>
+        <v>81549</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>23.90.1.3</t>
+          <t>22.80.0.9</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -1476,39 +1476,39 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2024-10-12</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.90.0.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>553494</v>
+        <v>1400496</v>
       </c>
       <c r="C36" t="n">
-        <v>714</v>
+        <v>2029</v>
       </c>
       <c r="D36" t="n">
-        <v>463</v>
+        <v>1075</v>
       </c>
       <c r="E36" t="n">
-        <v>911</v>
+        <v>3210</v>
       </c>
       <c r="F36" t="n">
-        <v>554671</v>
+        <v>1403600</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>23.90.0.2</t>
+          <t>22.0.1.1</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -1516,39 +1516,39 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.40.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>76444</v>
+        <v>393045</v>
       </c>
       <c r="C37" t="n">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="D37" t="n">
-        <v>56</v>
+        <v>216</v>
       </c>
       <c r="E37" t="n">
-        <v>144</v>
+        <v>1251</v>
       </c>
       <c r="F37" t="n">
-        <v>76578</v>
+        <v>393714</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>23.40.0.4</t>
+          <t>21.80.2.1</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -1556,30 +1556,30 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1296766</v>
+        <v>509717</v>
       </c>
       <c r="C38" t="n">
-        <v>1864</v>
+        <v>522</v>
       </c>
       <c r="D38" t="n">
-        <v>1075</v>
+        <v>178</v>
       </c>
       <c r="E38" t="n">
-        <v>2887</v>
+        <v>590</v>
       </c>
       <c r="F38" t="n">
-        <v>1299705</v>
+        <v>510417</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1588,38 +1588,38 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>22.0.1.1</t>
+          <t>23.100.0.4</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>389283</v>
+        <v>11362</v>
       </c>
       <c r="C39" t="n">
-        <v>428</v>
+        <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1233</v>
+        <v>30</v>
       </c>
       <c r="F39" t="n">
-        <v>389927</v>
+        <v>11369</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1628,87 +1628,85 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>21.80.2.1</t>
+          <t>21.40.1.3</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>2020-02-24</t>
-        </is>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J39" t="n">
+        <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
+          <t>Intel(R) Wi-Fi 7 BE200 320MHz - 23.60.1.2</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>63994</v>
+        <v>50766</v>
       </c>
       <c r="C40" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D40" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F40" t="n">
-        <v>64101</v>
+        <v>50801</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 7 be200 320mhz</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>21.80.0.4</t>
+          <t>23.60.1.2</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2024-06-02</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 7 BE200 320MHz - 23.70.3.1</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79835</v>
+        <v>20065</v>
       </c>
       <c r="C41" t="n">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E41" t="n">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="F41" t="n">
-        <v>79953</v>
+        <v>20076</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 7 be200 320mhz</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>22.80.0.9</t>
+          <t>23.70.3.1</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -1716,39 +1714,39 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2024-08-06</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>485568</v>
+        <v>161052</v>
       </c>
       <c r="C42" t="n">
-        <v>468</v>
+        <v>76</v>
       </c>
       <c r="D42" t="n">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="E42" t="n">
-        <v>568</v>
+        <v>197</v>
       </c>
       <c r="F42" t="n">
-        <v>486214</v>
+        <v>161158</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>23.100.0.4</t>
+          <t>20.70.12.5</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -1756,7 +1754,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2019-08-25</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1765,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>184414</v>
+        <v>198631</v>
       </c>
       <c r="C43" t="n">
         <v>146</v>
@@ -1776,10 +1774,10 @@
         <v>4</v>
       </c>
       <c r="E43" t="n">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F43" t="n">
-        <v>184564</v>
+        <v>198781</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1803,23 +1801,23 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>154074</v>
+        <v>172561</v>
       </c>
       <c r="C44" t="n">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="E44" t="n">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="F44" t="n">
-        <v>154175</v>
+        <v>172690</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1828,7 +1826,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>20.70.12.5</t>
+          <t>22.30.0.11</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -1836,159 +1834,159 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>18722</v>
+        <v>35502</v>
       </c>
       <c r="C45" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F45" t="n">
-        <v>18738</v>
+        <v>35502</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>22.130.0.5</t>
+          <t>20.70.9.1</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2019-04-28</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34161</v>
+        <v>52091</v>
       </c>
       <c r="C46" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F46" t="n">
-        <v>34181</v>
+        <v>52096</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>23.120.0.3</t>
+          <t>22.0.1.1</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 7 BE200 320MHz - 23.40.2.1</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>172561</v>
+        <v>27946</v>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="F47" t="n">
-        <v>172690</v>
+        <v>27946</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 7 be200 320mhz</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>22.30.0.11</t>
+          <t>23.40.2.1</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2024-03-30</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+          <t>Intel(R) Wi-Fi 7 BE200 320MHz - 23.90.0.2</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>48535</v>
+        <v>58601</v>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F48" t="n">
-        <v>48540</v>
+        <v>58609</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 7 be200 320mhz</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>20.70.8.1</t>
+          <t>23.90.0.2</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -1996,30 +1994,30 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2019-03-16</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>34065</v>
+        <v>48535</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="F49" t="n">
-        <v>34065</v>
+        <v>48540</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2028,7 +2026,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>20.70.9.1</t>
+          <t>20.70.8.1</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -2036,30 +2034,30 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2019-04-28</t>
+          <t>2019-03-16</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>52091</v>
+        <v>23761</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F50" t="n">
-        <v>52096</v>
+        <v>23765</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2068,7 +2066,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>22.0.1.1</t>
+          <t>20.30.1.2</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -2076,30 +2074,30 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2018-01-09</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>20220</v>
+        <v>14221</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F51" t="n">
-        <v>20227</v>
+        <v>14221</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2108,7 +2106,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>20.70.10.2</t>
+          <t>20.50.0.4</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -2116,30 +2114,30 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2019-05-11</t>
+          <t>2018-05-08</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>161852</v>
+        <v>20220</v>
       </c>
       <c r="C52" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>222</v>
+        <v>25</v>
       </c>
       <c r="F52" t="n">
-        <v>161874</v>
+        <v>20227</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2148,7 +2146,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>20.70.11.3</t>
+          <t>20.70.10.2</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -2156,30 +2154,30 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>2019-05-11</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>23761</v>
+        <v>161852</v>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E53" t="n">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="F53" t="n">
-        <v>23765</v>
+        <v>161874</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2188,7 +2186,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>20.30.1.2</t>
+          <t>20.70.11.3</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -2196,39 +2194,39 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2018-01-09</t>
+          <t>2019-09-05</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>14221</v>
+        <v>75454</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="F54" t="n">
-        <v>14221</v>
+        <v>75457</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>20.50.0.4</t>
+          <t>21.110.3.2</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -2236,30 +2234,30 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2018-05-08</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>65422</v>
+        <v>56003</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F55" t="n">
-        <v>65425</v>
+        <v>56018</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2268,7 +2266,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>21.110.3.2</t>
+          <t>21.60.2.1</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -2276,39 +2274,39 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>15504</v>
+        <v>121310</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E56" t="n">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="F56" t="n">
-        <v>15504</v>
+        <v>121350</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>22.70.0.6</t>
+          <t>21.70.0.6</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -2316,361 +2314,45 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>15823</v>
+        <v>35363</v>
       </c>
       <c r="C57" t="n">
+        <v>11</v>
+      </c>
+      <c r="D57" t="n">
         <v>3</v>
       </c>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
       <c r="E57" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F57" t="n">
-        <v>15827</v>
+        <v>35377</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>23.20.1.1</t>
+          <t>22.50.1.1</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>100</v>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>2023-12-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>156943</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>158</v>
-      </c>
-      <c r="F58" t="n">
-        <v>156943</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>intel(r) wi-fi 6e ax210 160mhz</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>22.0.1.5</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>100</v>
-      </c>
-      <c r="J58" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>12986</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2</v>
-      </c>
-      <c r="E59" t="n">
-        <v>25</v>
-      </c>
-      <c r="F59" t="n">
-        <v>12988</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>intel(r) wi-fi 6e ax210 160mhz</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>22.100.0.3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>42024</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>45</v>
-      </c>
-      <c r="F60" t="n">
-        <v>42024</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>intel(r) wi-fi 6e ax210 160mhz</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>22.110.1.1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>100</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>19083</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>23</v>
-      </c>
-      <c r="F61" t="n">
-        <v>19083</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>intel(r) wi-fi 6e ax210 160mhz</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>22.170.2.1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>100</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>2022-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>11124</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>28</v>
-      </c>
-      <c r="F62" t="n">
-        <v>11128</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>21.40.1.3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>100</v>
-      </c>
-      <c r="J62" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>56003</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>15</v>
-      </c>
-      <c r="E63" t="n">
-        <v>62</v>
-      </c>
-      <c r="F63" t="n">
-        <v>56018</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>21.60.2.1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>100</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>2019-12-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>117615</v>
-      </c>
-      <c r="C64" t="n">
-        <v>24</v>
-      </c>
-      <c r="D64" t="n">
-        <v>14</v>
-      </c>
-      <c r="E64" t="n">
-        <v>151</v>
-      </c>
-      <c r="F64" t="n">
-        <v>117653</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>21.70.0.6</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>100</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>2020-01-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>35341</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11</v>
-      </c>
-      <c r="D65" t="n">
-        <v>3</v>
-      </c>
-      <c r="E65" t="n">
-        <v>80</v>
-      </c>
-      <c r="F65" t="n">
-        <v>35355</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>22.50.1.1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>100</v>
-      </c>
-      <c r="J65" t="inlineStr">
         <is>
           <t>2021-04-27</t>
         </is>
